--- a/assets/docs/Continued Education.xlsx
+++ b/assets/docs/Continued Education.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E114106-59BA-4733-BD06-0CA2C4DDCE62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0AB323-FDEA-4812-B2B8-9F893F73D9DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>Task</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>UC-YFS0VOJJ</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/paths/skill/react</t>
+  </si>
+  <si>
+    <t>Pluralsight React Path</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>React/Javascript</t>
   </si>
 </sst>
 </file>
@@ -393,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -438,6 +450,7 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,6 +458,270 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5757"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -620,6 +897,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -630,13 +914,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -676,270 +953,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5757"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -960,23 +973,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7D68C99-DA14-4073-8448-0F8D3F1B95A7}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I21" xr:uid="{27854220-7CB5-44EA-AC55-93318B7A45FD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
-    <sortCondition descending="1" ref="F1:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7D68C99-DA14-4073-8448-0F8D3F1B95A7}" name="Table1" displayName="Table1" ref="A1:I22" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+  <autoFilter ref="A1:I22" xr:uid="{27854220-7CB5-44EA-AC55-93318B7A45FD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I22">
+    <sortCondition descending="1" ref="F1:F22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BE267FF1-A45D-4880-A83E-F62B68C4E161}" name="#" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{BE267FF1-A45D-4880-A83E-F62B68C4E161}" name="#" dataDxfId="30">
       <calculatedColumnFormula>IF(B2 &lt;&gt; "", ROW() - 1, "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{320A820C-8653-4870-BAA6-83D8B91D49BD}" name="Task" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{EE74B58D-248E-4FC3-87DB-BEC5D826BFFD}" name="Platform" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{8D989708-AB9D-4195-A10F-D8BB9D2CDDC0}" name="Link" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{1D304465-3296-489E-A1B2-3EE6999DEBBC}" name="Goal" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1489DD65-C862-4436-B6A7-B306D5477883}" name="% Complete" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{73922218-F740-4710-B8D9-11A1B221ACB1}" name="Complete" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{ADC076CE-FF7C-4176-811C-B2C00B484707}" name="Acclaim" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{1A7DA592-93C4-4D6C-A95A-89E8A8FA7985}" name="Markdown Table" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{320A820C-8653-4870-BAA6-83D8B91D49BD}" name="Task" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{EE74B58D-248E-4FC3-87DB-BEC5D826BFFD}" name="Platform" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{8D989708-AB9D-4195-A10F-D8BB9D2CDDC0}" name="Link" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{1D304465-3296-489E-A1B2-3EE6999DEBBC}" name="Goal" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{1489DD65-C862-4436-B6A7-B306D5477883}" name="% Complete" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{73922218-F740-4710-B8D9-11A1B221ACB1}" name="Complete" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{ADC076CE-FF7C-4176-811C-B2C00B484707}" name="Acclaim" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{1A7DA592-93C4-4D6C-A95A-89E8A8FA7985}" name="Markdown Table" dataDxfId="22">
       <calculatedColumnFormula>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1250,8 +1263,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,25 +1521,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.08</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="17"/>
-      <c r="I9" t="str">
+      <c r="I9" s="20" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 8 | C# Intermediate: Classes, Interfaces and OOP | [Udemy](https://www.udemy.com/csharp-intermediate-classes-interfaces-and-oop/ "Udemy") | 0% |  |</v>
+        <v>| 8 | Pluralsight React Path | [Pluralsight](https://app.pluralsight.com/paths/skill/react "Pluralsight") | 8% |  |</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1535,13 +1550,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -1553,25 +1568,25 @@
       <c r="H10" s="17"/>
       <c r="I10" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 9 | C# Advanced Topics: Prepare for Technical Interviews | [Udemy](https://www.udemy.com/csharp-advanced/ "Udemy") | 0% |  |</v>
+        <v>| 9 | C# Intermediate: Classes, Interfaces and OOP | [Udemy](https://www.udemy.com/csharp-intermediate-classes-interfaces-and-oop/ "Udemy") | 0% |  |</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="5">
         <f>IF(B11 &lt;&gt; "", ROW() - 1, "")</f>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="4" t="s">
@@ -1580,7 +1595,7 @@
       <c r="H11" s="17"/>
       <c r="I11" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 10 | Machine Learning A-Z | [Udemy](https://www.udemy.com/machinelearning/learn/v4/overview "Udemy") | 0% |  |</v>
+        <v>| 10 | C# Advanced Topics: Prepare for Technical Interviews | [Udemy](https://www.udemy.com/csharp-advanced/ "Udemy") | 0% |  |</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1589,13 +1604,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1607,7 +1622,7 @@
       <c r="H12" s="17"/>
       <c r="I12" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 11 | Deep Learning A-Z | [Udemy](https://www.udemy.com/deeplearning/learn/v4/overview "Udemy") | 0% |  |</v>
+        <v>| 11 | Machine Learning A-Z | [Udemy](https://www.udemy.com/machinelearning/learn/v4/overview "Udemy") | 0% |  |</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1616,13 +1631,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1634,25 +1649,25 @@
       <c r="H13" s="17"/>
       <c r="I13" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 12 | Artificial Intelligence A-Z | [Udemy](https://www.udemy.com/artificial-intelligence-az/learn/v4/overview "Udemy") | 0% |  |</v>
+        <v>| 12 | Deep Learning A-Z | [Udemy](https://www.udemy.com/deeplearning/learn/v4/overview "Udemy") | 0% |  |</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="12">
         <f>IF(B14 &lt;&gt; "", ROW() - 1, "")</f>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="4" t="s">
@@ -1661,7 +1676,7 @@
       <c r="H14" s="17"/>
       <c r="I14" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 13 | Learn C the Hard Way | [O'Reilly Learning](https://learning.oreilly.com/library/view/learn-c-the/9780133124385/ "O'Reilly Learning") | 0% |  |</v>
+        <v>| 13 | Artificial Intelligence A-Z | [Udemy](https://www.udemy.com/artificial-intelligence-az/learn/v4/overview "Udemy") | 0% |  |</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1670,16 +1685,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="4" t="s">
@@ -1688,7 +1703,7 @@
       <c r="H15" s="17"/>
       <c r="I15" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 14 | The Rust Book | [Rust-Lang.Org](https://doc.rust-lang.org/book/second-edition/index.html "Rust-Lang.Org") | 0% |  |</v>
+        <v>| 14 | Learn C the Hard Way | [O'Reilly Learning](https://learning.oreilly.com/library/view/learn-c-the/9780133124385/ "O'Reilly Learning") | 0% |  |</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1697,16 +1712,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="4" t="s">
@@ -1715,7 +1730,7 @@
       <c r="H16" s="17"/>
       <c r="I16" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 15 | Complete C# Unity Developer 2D | [Udemy](https://www.udemy.com/unitycourse/learn/v4/overview "Udemy") | 0% |  |</v>
+        <v>| 15 | The Rust Book | [Rust-Lang.Org](https://doc.rust-lang.org/book/second-edition/index.html "Rust-Lang.Org") | 0% |  |</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1724,13 +1739,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>22</v>
@@ -1742,7 +1757,7 @@
       <c r="H17" s="17"/>
       <c r="I17" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 16 | Complete C# Unity Developer 3D | [Udemy](https://www.udemy.com/unitycourse2/learn/v4/overview "Udemy") | 0% |  |</v>
+        <v>| 16 | Complete C# Unity Developer 2D | [Udemy](https://www.udemy.com/unitycourse/learn/v4/overview "Udemy") | 0% |  |</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1751,13 +1766,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
@@ -1769,7 +1784,7 @@
       <c r="H18" s="17"/>
       <c r="I18" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 17 | RPG Core Combat Creator | [Udemy](https://www.udemy.com/unityrpg/learn/v4/overview "Udemy") | 0% |  |</v>
+        <v>| 17 | Complete C# Unity Developer 3D | [Udemy](https://www.udemy.com/unitycourse2/learn/v4/overview "Udemy") | 0% |  |</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1778,16 +1793,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="8" t="s">
@@ -1796,7 +1811,7 @@
       <c r="H19" s="18"/>
       <c r="I19" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 18 | Beginning C++ Game Programming | [Packtpub](https://www.packtpub.com/mapt/book/all_books/9781786466198 "Packtpub") | 0% |  |</v>
+        <v>| 18 | RPG Core Combat Creator | [Udemy](https://www.udemy.com/unityrpg/learn/v4/overview "Udemy") | 0% |  |</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1805,13 +1820,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>23</v>
@@ -1823,7 +1838,7 @@
       <c r="H20" s="18"/>
       <c r="I20" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 19 | The Unreal Engine Developer Course | [Udemy](https://www.udemy.com/unrealcourse/learn/v4/overview "Udemy") | 0% |  |</v>
+        <v>| 19 | Beginning C++ Game Programming | [Packtpub](https://www.packtpub.com/mapt/book/all_books/9781786466198 "Packtpub") | 0% |  |</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1832,16 +1847,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="8" t="s">
@@ -1850,11 +1865,35 @@
       <c r="H21" s="18"/>
       <c r="I21" t="str">
         <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
-        <v>| 20 | CS50 Introduction to Computer Science | [Edx](https://courses.edx.org/courses/course-v1:HarvardX+CS50+X/course/ "Edx") | 0% |  |</v>
+        <v>| 20 | The Unreal Engine Developer Course | [Udemy](https://www.udemy.com/unrealcourse/learn/v4/overview "Udemy") | 0% |  |</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22"/>
+      <c r="A22" s="6">
+        <f>IF(B22 &lt;&gt; "", ROW() - 1, "")</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" t="str">
+        <f>_xlfn.CONCAT("| ", Table1[[#This Row],['#]], " | ", Table1[[#This Row],[Task]], " | [", Table1[[#This Row],[Platform]], "](", Table1[[#This Row],[Link]], " """, Table1[[#This Row],[Platform]], """) | ", TEXT(Table1[[#This Row],[% Complete]], "0%"), " | ",  Table1[[#This Row],[Acclaim]], " |")</f>
+        <v>| 21 | CS50 Introduction to Computer Science | [Edx](https://courses.edx.org/courses/course-v1:HarvardX+CS50+X/course/ "Edx") | 0% |  |</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G23"/>
@@ -1879,117 +1918,118 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G18 G7:G12">
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>$G7="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="26">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>$G7="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>$G2="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$G2="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$G4="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>$G4="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="expression" dxfId="28" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$G5="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="20">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>$G5="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="26" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$G3="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$G3="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="24" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$G14="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$G14="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$G13="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$G13="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$G15="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$G15="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$G19="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$G19="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$G20="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$G20="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$G21="y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$G21="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{99BDCD56-A7F4-4743-B543-B33250DD8A65}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{99BDCD56-A7F4-4743-B543-B33250DD8A65}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{C2F6360A-CD70-4B10-93CE-8912CD6EDB9B}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{10985487-F4FE-4357-9A5D-48F1686AEBC8}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{12B8E6C1-C4D6-48E2-9A97-30D440A6FABF}"/>
-    <hyperlink ref="D13" r:id="rId5" xr:uid="{1850C83A-D2EE-4DAD-8BCD-176A58D3F29E}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{10985487-F4FE-4357-9A5D-48F1686AEBC8}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{12B8E6C1-C4D6-48E2-9A97-30D440A6FABF}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{1850C83A-D2EE-4DAD-8BCD-176A58D3F29E}"/>
     <hyperlink ref="D4" r:id="rId6" xr:uid="{273F840C-7A20-41A1-8A9F-E65495CD6C80}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{859180FA-3699-41DF-82A7-3A9863F99671}"/>
+    <hyperlink ref="D22" r:id="rId7" xr:uid="{859180FA-3699-41DF-82A7-3A9863F99671}"/>
     <hyperlink ref="D7" r:id="rId8" xr:uid="{9D62BA5F-BB50-4F2E-AF0B-8B2CE14DFBE4}"/>
-    <hyperlink ref="D16" r:id="rId9" display="https://www.packtpub.com/mapt/book/all_books/9781786466198" xr:uid="{3AC057A9-AB96-4A40-9357-6B02B589F0FF}"/>
-    <hyperlink ref="D19" r:id="rId10" display="https://www.safaribooksonline.com/library/view/learn-c-the/9780133124385/" xr:uid="{ECBE412C-6EF7-4D05-AEF2-C6EC8DF64833}"/>
+    <hyperlink ref="D17" r:id="rId9" display="https://www.packtpub.com/mapt/book/all_books/9781786466198" xr:uid="{3AC057A9-AB96-4A40-9357-6B02B589F0FF}"/>
+    <hyperlink ref="D20" r:id="rId10" display="https://www.safaribooksonline.com/library/view/learn-c-the/9780133124385/" xr:uid="{ECBE412C-6EF7-4D05-AEF2-C6EC8DF64833}"/>
     <hyperlink ref="D2" r:id="rId11" xr:uid="{FEBD533F-904E-45A5-B005-56488A16FF3D}"/>
     <hyperlink ref="H2" r:id="rId12" xr:uid="{94EC4F86-A3BD-4ADA-849E-D04395292059}"/>
-    <hyperlink ref="D9" r:id="rId13" xr:uid="{51EAA83C-588C-4290-A613-A9D181822E7B}"/>
-    <hyperlink ref="D10" r:id="rId14" xr:uid="{5A1B5D9B-11DC-49D9-BC08-7699EAF1491D}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{51EAA83C-588C-4290-A613-A9D181822E7B}"/>
+    <hyperlink ref="D11" r:id="rId14" xr:uid="{5A1B5D9B-11DC-49D9-BC08-7699EAF1491D}"/>
     <hyperlink ref="D3" r:id="rId15" xr:uid="{D9F4B03C-302A-4BEB-8FC8-BA069826EF9D}"/>
-    <hyperlink ref="D14" r:id="rId16" xr:uid="{B0050F0D-2DFB-4D03-9239-C81AFEF195C8}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{B0050F0D-2DFB-4D03-9239-C81AFEF195C8}"/>
     <hyperlink ref="D5" r:id="rId17" xr:uid="{5E6449AE-4404-4209-B8AF-A49FF59B1E2C}"/>
     <hyperlink ref="D8" r:id="rId18" xr:uid="{084122A1-8C7C-4EAA-8747-E6944ACB4D77}"/>
+    <hyperlink ref="D9" r:id="rId19" xr:uid="{1C20A9A0-4BBE-4D9E-ADD1-613D40592E5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId19"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>